--- a/lab1/task1.xlsx
+++ b/lab1/task1.xlsx
@@ -430,7 +430,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
